--- a/resources/sample_tasks.updated.xlsx
+++ b/resources/sample_tasks.updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,46 @@
         <v>45993</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>T995</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EXPORT_PARQUET: sample_data</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>T994</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S3_UPLOAD: sample_data.parquet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
